--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="97">
   <si>
     <t>string</t>
   </si>
@@ -301,6 +301,81 @@
   <si>
     <t>宫里衣服用于参加一般典礼</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Itempath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具图片路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Item/image_item10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Item/image_item20001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Item/image_item20002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Item/image_item20003</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Item/image_item20004</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Item/image_item20005</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Item/image_item20006</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Item/image_item30001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Item/image_item30002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Item/image_item30003</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Item/image_item30004</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Item/image_item30005</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Item/image_item30006</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Item/image_item30007</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Item/image_item30008</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Item/image_item40001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Item/image_item40002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Item/image_item40003</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Item/image_item40004</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Item/image_item40005</t>
   </si>
 </sst>
 </file>
@@ -759,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -773,9 +848,10 @@
     <col min="4" max="4" width="20.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.8984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.296875" customWidth="1"/>
+    <col min="8" max="8" width="41.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
@@ -797,8 +873,11 @@
       <c r="G1" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -820,13 +899,16 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -848,8 +930,11 @@
       <c r="G4" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10001</v>
       </c>
@@ -869,11 +954,14 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G25" si="0">F5*10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <f t="shared" ref="G5:G24" si="0">F5*10</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20001</v>
       </c>
@@ -896,8 +984,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>20002</v>
       </c>
@@ -920,8 +1011,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>20003</v>
       </c>
@@ -944,8 +1038,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20004</v>
       </c>
@@ -968,8 +1065,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>20005</v>
       </c>
@@ -992,8 +1092,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>20006</v>
       </c>
@@ -1016,8 +1119,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>30001</v>
       </c>
@@ -1040,8 +1146,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>30002</v>
       </c>
@@ -1064,8 +1173,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>30003</v>
       </c>
@@ -1088,8 +1200,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>30004</v>
       </c>
@@ -1112,8 +1227,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>30005</v>
       </c>
@@ -1136,8 +1254,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>30006</v>
       </c>
@@ -1160,8 +1281,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>30007</v>
       </c>
@@ -1184,8 +1308,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>30008</v>
       </c>
@@ -1208,8 +1335,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>40001</v>
       </c>
@@ -1232,8 +1362,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>40002</v>
       </c>
@@ -1256,8 +1389,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>40003</v>
       </c>
@@ -1280,8 +1416,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>40004</v>
       </c>
@@ -1304,8 +1443,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>40005</v>
       </c>
@@ -1328,43 +1470,46 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25" s="6"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26" s="7"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28" s="6"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29" s="6"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30" s="6"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31" s="6"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32" s="7"/>

--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -837,7 +837,7 @@
   <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1134,7 +1134,7 @@
         <v>50</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1161,7 +1161,7 @@
         <v>52</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1188,7 +1188,7 @@
         <v>54</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1215,7 +1215,7 @@
         <v>56</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1242,7 +1242,7 @@
         <v>58</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1269,7 +1269,7 @@
         <v>60</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1296,7 +1296,7 @@
         <v>62</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1323,7 +1323,7 @@
         <v>64</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1350,7 +1350,7 @@
         <v>66</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>4</v>
@@ -1377,7 +1377,7 @@
         <v>68</v>
       </c>
       <c r="D21">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -1404,7 +1404,7 @@
         <v>70</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E22">
         <v>4</v>
@@ -1431,7 +1431,7 @@
         <v>72</v>
       </c>
       <c r="D23">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E23">
         <v>4</v>
@@ -1458,7 +1458,7 @@
         <v>74</v>
       </c>
       <c r="D24">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E24">
         <v>4</v>

--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="99">
   <si>
     <t>string</t>
   </si>
@@ -376,6 +376,14 @@
   </si>
   <si>
     <t>Image/GameScene/Item/image_item40005</t>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Common/image_gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -837,7 +845,7 @@
   <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -954,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G24" si="0">F5*10</f>
+        <f t="shared" ref="G5:G25" si="0">F5*10</f>
         <v>0</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -1475,9 +1483,27 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25"/>
-      <c r="B25" s="6"/>
-      <c r="F25" s="5"/>
+      <c r="A25">
+        <v>50001</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26"/>

--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -845,7 +845,7 @@
   <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G25" si="0">F5*10</f>
+        <f t="shared" ref="G5:G24" si="0">F5*10</f>
         <v>0</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -1145,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="5">
         <v>0</v>

--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="100">
   <si>
     <t>string</t>
   </si>
@@ -383,6 +383,10 @@
   </si>
   <si>
     <t>Image/GameScene/Common/image_gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双倍金币卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -845,7 +849,7 @@
   <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1506,10 +1510,28 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26"/>
-      <c r="B26"/>
+      <c r="A26">
+        <v>60001</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="C26" s="7"/>
-      <c r="F26" s="5"/>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27"/>

--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="101">
   <si>
     <t>string</t>
   </si>
@@ -387,6 +387,10 @@
   </si>
   <si>
     <t>双倍金币卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Common/image_item60001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -849,7 +853,7 @@
   <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1530,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/TItem.xlsx
+++ b/docs/excel/TItem.xlsx
@@ -390,7 +390,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Image/GameScene/Common/image_item60001</t>
+    <t>Image/GameScene/Item/image_item60001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -853,7 +853,7 @@
   <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
